--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_19_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_19_8.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_0</t>
+          <t>model_19_8_20</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9537439663241526</v>
+        <v>0.9502672022444039</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8129350645002758</v>
+        <v>0.8148846953566783</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9746662946944274</v>
+        <v>0.9558752238900087</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9330876855093377</v>
+        <v>0.9087229569085904</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9479907157066833</v>
+        <v>0.960954521622829</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3093143101798426</v>
+        <v>0.3325634475901485</v>
       </c>
       <c r="H2" t="n">
-        <v>1.250904085041482</v>
+        <v>1.237866894527494</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1091059213190753</v>
+        <v>0.4390754822532662</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7182465709689745</v>
+        <v>0.5477295102164721</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4136762461440249</v>
+        <v>0.4934025547339513</v>
       </c>
       <c r="L2" t="n">
-        <v>2.181612434911229</v>
+        <v>1.287628146203305</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5561603277651531</v>
+        <v>0.5766831431472126</v>
       </c>
       <c r="N2" t="n">
-        <v>1.020946128456987</v>
+        <v>1.022520512191213</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5798372243287078</v>
+        <v>0.601233738449666</v>
       </c>
       <c r="P2" t="n">
-        <v>156.346794668037</v>
+        <v>156.20184923454</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.2002331828885</v>
+        <v>250.0552877493915</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_1</t>
+          <t>model_19_8_19</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9540927072302937</v>
+        <v>0.9501722271206462</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8127098876561462</v>
+        <v>0.8148790524550509</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9748012278136817</v>
+        <v>0.9567023232003227</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9323407565378048</v>
+        <v>0.910379269519116</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9475232388154248</v>
+        <v>0.961673444065326</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3069822781346725</v>
+        <v>0.3331985466800366</v>
       </c>
       <c r="H3" t="n">
-        <v>1.252409843635021</v>
+        <v>1.23790462863666</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1085247981823246</v>
+        <v>0.4308452075513119</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7262642158022852</v>
+        <v>0.5377904142050028</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4173945069923048</v>
+        <v>0.4843178108781574</v>
       </c>
       <c r="L3" t="n">
-        <v>2.160716999969347</v>
+        <v>1.299509540448923</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5540598145820291</v>
+        <v>0.5772335287212936</v>
       </c>
       <c r="N3" t="n">
-        <v>1.020788208046659</v>
+        <v>1.022563519794424</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5776472879507164</v>
+        <v>0.6018075550770909</v>
       </c>
       <c r="P3" t="n">
-        <v>156.3619305180137</v>
+        <v>156.1980334608071</v>
       </c>
       <c r="Q3" t="n">
-        <v>250.2153690328651</v>
+        <v>250.0514719756585</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_2</t>
+          <t>model_19_8_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9544280934942095</v>
+        <v>0.9503405557509282</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8124780723424087</v>
+        <v>0.814873304197583</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9749217024978299</v>
+        <v>0.95505118836479</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9315885921872042</v>
+        <v>0.9069853584266745</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9470483148669557</v>
+        <v>0.9602175100598525</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3047395486435555</v>
+        <v>0.3320729323542584</v>
       </c>
       <c r="H4" t="n">
-        <v>1.253959993705395</v>
+        <v>1.237943067260816</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1080059439029737</v>
+        <v>0.4472752699355274</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7343380579602835</v>
+        <v>0.558156381346594</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4211720009316287</v>
+        <v>0.5027158837839478</v>
       </c>
       <c r="L4" t="n">
-        <v>2.140032524638216</v>
+        <v>1.275787593574967</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5520321989191894</v>
+        <v>0.5762576961345145</v>
       </c>
       <c r="N4" t="n">
-        <v>1.02063633502149</v>
+        <v>1.022487295509014</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5755333524913665</v>
+        <v>0.6007901792768406</v>
       </c>
       <c r="P4" t="n">
-        <v>156.3765956121236</v>
+        <v>156.20480131685</v>
       </c>
       <c r="Q4" t="n">
-        <v>250.2300341269751</v>
+        <v>250.0582398317014</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_3</t>
+          <t>model_19_8_18</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9547504533793016</v>
+        <v>0.9500553488558174</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8122397779637049</v>
+        <v>0.8148560638640943</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9750280481381978</v>
+        <v>0.957531927310239</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9308313523826182</v>
+        <v>0.9119533464943484</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9465661409512676</v>
+        <v>0.9623738253171124</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3025839266076136</v>
+        <v>0.3339801121751212</v>
       </c>
       <c r="H5" t="n">
-        <v>1.255553469313031</v>
+        <v>1.238058353450239</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1075479398751124</v>
+        <v>0.4225900081655337</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7424663807837467</v>
+        <v>0.5283447925953756</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4250071603294296</v>
+        <v>0.4754673648526013</v>
       </c>
       <c r="L5" t="n">
-        <v>2.119558888865027</v>
+        <v>1.31143351938503</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5500762916247287</v>
+        <v>0.5779101246518538</v>
       </c>
       <c r="N5" t="n">
-        <v>1.020490360733901</v>
+        <v>1.022616445801139</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5734941781740944</v>
+        <v>0.6025129550971616</v>
       </c>
       <c r="P5" t="n">
-        <v>156.3907931933211</v>
+        <v>156.1933476643283</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.2442317081726</v>
+        <v>250.0467861791797</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_4</t>
+          <t>model_19_8_22</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9550600464889902</v>
+        <v>0.9503927930164091</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8119952960675818</v>
+        <v>0.8148452012914268</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9751202873275452</v>
+        <v>0.9542302886953885</v>
       </c>
       <c r="E6" t="n">
-        <v>0.930069194293304</v>
+        <v>0.9051671402954796</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9460768292385463</v>
+        <v>0.9594625958522319</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3005136760575809</v>
+        <v>0.331723621519457</v>
       </c>
       <c r="H6" t="n">
-        <v>1.257188320878142</v>
+        <v>1.238130991523684</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1071506887973848</v>
+        <v>0.4554438534389433</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7506474971948751</v>
+        <v>0.5690670297718367</v>
       </c>
       <c r="K6" t="n">
-        <v>0.42889909299613</v>
+        <v>0.5122554416053899</v>
       </c>
       <c r="L6" t="n">
-        <v>2.099289253351732</v>
+        <v>1.263991999557394</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5481912768893545</v>
+        <v>0.5759545307743112</v>
       </c>
       <c r="N6" t="n">
-        <v>1.020350167627627</v>
+        <v>1.02246364089823</v>
       </c>
       <c r="O6" t="n">
-        <v>0.571528914458917</v>
+        <v>0.6004741075396146</v>
       </c>
       <c r="P6" t="n">
-        <v>156.4045240300711</v>
+        <v>156.2069062441203</v>
       </c>
       <c r="Q6" t="n">
-        <v>250.2579625449225</v>
+        <v>250.0603447589717</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_5</t>
+          <t>model_19_8_17</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9553572055332225</v>
+        <v>0.9499158652110515</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8117447891211529</v>
+        <v>0.8148154895260511</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9751990760147617</v>
+        <v>0.9583634795806923</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9293024908059867</v>
+        <v>0.9134440605524103</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9455808060320763</v>
+        <v>0.9630551813529497</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2985265721605086</v>
+        <v>0.3349128399499341</v>
       </c>
       <c r="H7" t="n">
-        <v>1.258863461982391</v>
+        <v>1.238329674235562</v>
       </c>
       <c r="I7" t="n">
-        <v>0.106811365662273</v>
+        <v>0.4143154230830403</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7588774045730227</v>
+        <v>0.5193994099094211</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4328444081613146</v>
+        <v>0.4668573330963484</v>
       </c>
       <c r="L7" t="n">
-        <v>2.079228198114226</v>
+        <v>1.323405115879719</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5463758524683431</v>
+        <v>0.5787165454261128</v>
       </c>
       <c r="N7" t="n">
-        <v>1.02021560504156</v>
+        <v>1.022679608206316</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5696362036618564</v>
+        <v>0.603353706873302</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4177926622965</v>
+        <v>156.187769920527</v>
       </c>
       <c r="Q7" t="n">
-        <v>250.2712311771479</v>
+        <v>250.0412084353784</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_6</t>
+          <t>model_19_8_23</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9556421877514921</v>
+        <v>0.9504243192977542</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8114885023592466</v>
+        <v>0.814800625457556</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9752642869885954</v>
+        <v>0.9534130670469001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9285313483952945</v>
+        <v>0.9032693848996468</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9450781103852376</v>
+        <v>0.9586902421048249</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2966208947547166</v>
+        <v>0.3315128051309373</v>
       </c>
       <c r="H8" t="n">
-        <v>1.26057725273935</v>
+        <v>1.238429070330031</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1065305183367672</v>
+        <v>0.4635758378035412</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7671549600039549</v>
+        <v>0.5804549603868676</v>
       </c>
       <c r="K8" t="n">
-        <v>0.436842795198606</v>
+        <v>0.5220153761219506</v>
       </c>
       <c r="L8" t="n">
-        <v>2.059361926463148</v>
+        <v>1.252239005121235</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5446291350586348</v>
+        <v>0.5757714869033871</v>
       </c>
       <c r="N8" t="n">
-        <v>1.02008655648989</v>
+        <v>1.0224493648463</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5678151248758133</v>
+        <v>0.6002832711121523</v>
       </c>
       <c r="P8" t="n">
-        <v>156.4306008083425</v>
+        <v>156.2081776845126</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.2840393231939</v>
+        <v>250.061616199364</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_7</t>
+          <t>model_19_8_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9559152546953754</v>
+        <v>0.9497536314966782</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8112265832159878</v>
+        <v>0.8147570211594669</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9753162393235265</v>
+        <v>0.9591970653410431</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9277561997418873</v>
+        <v>0.9148508071488004</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9445691330839852</v>
+        <v>0.9637173956071273</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2947948948436119</v>
+        <v>0.3359976975449658</v>
       </c>
       <c r="H9" t="n">
-        <v>1.262328707256349</v>
+        <v>1.238720652472132</v>
       </c>
       <c r="I9" t="n">
-        <v>0.106306772647024</v>
+        <v>0.4060206032110232</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7754755190301806</v>
+        <v>0.5109578938595658</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4408911458386023</v>
+        <v>0.4584891886050371</v>
       </c>
       <c r="L9" t="n">
-        <v>2.039699670653136</v>
+        <v>1.335417076380602</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5429501771282628</v>
+        <v>0.5796530837880238</v>
       </c>
       <c r="N9" t="n">
-        <v>1.01996290353417</v>
+        <v>1.022753072529806</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5660646902304234</v>
+        <v>0.6043301156121812</v>
       </c>
       <c r="P9" t="n">
-        <v>156.4429508723447</v>
+        <v>156.1813019431743</v>
       </c>
       <c r="Q9" t="n">
-        <v>250.2963893871961</v>
+        <v>250.0347404580257</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_8</t>
+          <t>model_19_8_24</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9561767127674239</v>
+        <v>0.950435560043848</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8109592619232987</v>
+        <v>0.8147399157453357</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9753553953169016</v>
+        <v>0.952599671213623</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9269771334713188</v>
+        <v>0.9012931882461643</v>
       </c>
       <c r="F10" t="n">
-        <v>0.944054034206901</v>
+        <v>0.957900768192248</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2930465235119196</v>
+        <v>0.3314376382100497</v>
       </c>
       <c r="H10" t="n">
-        <v>1.264116285971462</v>
+        <v>1.238835036455191</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1061381375942029</v>
+        <v>0.4716697523623068</v>
       </c>
       <c r="J10" t="n">
-        <v>0.783838130332043</v>
+        <v>0.5923135963422348</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4449881868335027</v>
+        <v>0.531991651520564</v>
       </c>
       <c r="L10" t="n">
-        <v>2.020237295104998</v>
+        <v>1.24052674544877</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5413377166907175</v>
+        <v>0.5757062082434492</v>
       </c>
       <c r="N10" t="n">
-        <v>1.019844507426072</v>
+        <v>1.022444274697125</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5643835840137985</v>
+        <v>0.6002152134045153</v>
       </c>
       <c r="P10" t="n">
-        <v>156.4548477985053</v>
+        <v>156.208631214166</v>
       </c>
       <c r="Q10" t="n">
-        <v>250.3082863133568</v>
+        <v>250.0620697290175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_9</t>
+          <t>model_19_8_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9564268165389405</v>
+        <v>0.9495680062416817</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8106867232948621</v>
+        <v>0.8146802133500937</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9753817085244133</v>
+        <v>0.9600316753535062</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9261945151564619</v>
+        <v>0.9161728792270578</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9435330748442353</v>
+        <v>0.9643599055953915</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2913740784401665</v>
+        <v>0.3372389744798535</v>
       </c>
       <c r="H11" t="n">
-        <v>1.265938753034742</v>
+        <v>1.239234266647078</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1060248132022995</v>
+        <v>0.3977155912421876</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7922388697968535</v>
+        <v>0.5030244873055257</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4491318414995765</v>
+        <v>0.4503700392738567</v>
       </c>
       <c r="L11" t="n">
-        <v>2.000971504148336</v>
+        <v>1.347474292944327</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5397907728371859</v>
+        <v>0.5807228034784354</v>
       </c>
       <c r="N11" t="n">
-        <v>1.019731252888027</v>
+        <v>1.02283712924905</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5627707835578069</v>
+        <v>0.6054453754844387</v>
       </c>
       <c r="P11" t="n">
-        <v>156.4662946888555</v>
+        <v>156.1739269537063</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.3197332037069</v>
+        <v>250.0273654685577</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_10</t>
+          <t>model_19_8_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9566658180094908</v>
+        <v>0.9493585167731112</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8104091668973291</v>
+        <v>0.8145849150168507</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9753957361227554</v>
+        <v>0.9608672369648663</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9254083056124264</v>
+        <v>0.9174090395348289</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9430063632101754</v>
+        <v>0.9649823908140959</v>
       </c>
       <c r="G12" t="n">
-        <v>0.289775874506096</v>
+        <v>0.3386398315207941</v>
       </c>
       <c r="H12" t="n">
-        <v>1.267794773943075</v>
+        <v>1.239871527040282</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1059643998508947</v>
+        <v>0.3894011101319437</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8006781580409533</v>
+        <v>0.4956066146730126</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4533212491128303</v>
+        <v>0.4425039351829811</v>
       </c>
       <c r="L12" t="n">
-        <v>1.981898110972672</v>
+        <v>1.359577669972383</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5383083451945511</v>
+        <v>0.5819276858173995</v>
       </c>
       <c r="N12" t="n">
-        <v>1.019623025807023</v>
+        <v>1.022931992404629</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5612252459013768</v>
+        <v>0.6067015521590228</v>
       </c>
       <c r="P12" t="n">
-        <v>156.4772950026643</v>
+        <v>156.1656363605735</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.3307335175158</v>
+        <v>250.0190748754249</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_11</t>
+          <t>model_19_8_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9568940176998529</v>
+        <v>0.9491248327591751</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8101267848666506</v>
+        <v>0.8144707693825338</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9753973329079086</v>
+        <v>0.9617032202447919</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9246191687776943</v>
+        <v>0.9185588506365638</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9424742997637509</v>
+        <v>0.9655845512885386</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2882499021258811</v>
+        <v>0.3402024775980009</v>
       </c>
       <c r="H13" t="n">
-        <v>1.269683063882473</v>
+        <v>1.240634819422552</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1059575228973186</v>
+        <v>0.3810824330949432</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8091488682515638</v>
+        <v>0.4887069008976216</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4575532244652699</v>
+        <v>0.4348946669962824</v>
       </c>
       <c r="L13" t="n">
-        <v>1.963019327241755</v>
+        <v>1.371719882808029</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5368890966725635</v>
+        <v>0.5832687867510149</v>
       </c>
       <c r="N13" t="n">
-        <v>1.01951969009818</v>
+        <v>1.023037811580751</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5597455770315586</v>
+        <v>0.6080997465358438</v>
       </c>
       <c r="P13" t="n">
-        <v>156.4878549187579</v>
+        <v>156.1564286325559</v>
       </c>
       <c r="Q13" t="n">
-        <v>250.3412934336094</v>
+        <v>250.0098671474073</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9571116457498217</v>
+        <v>0.9488663895706011</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8098397292787982</v>
+        <v>0.8143374509123198</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9753872305729299</v>
+        <v>0.9625392140103527</v>
       </c>
       <c r="E14" t="n">
-        <v>0.923826929218824</v>
+        <v>0.9196213110059026</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9419369863691761</v>
+        <v>0.9661659671351011</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2867946223536552</v>
+        <v>0.3419306883900166</v>
       </c>
       <c r="H14" t="n">
-        <v>1.271602605920211</v>
+        <v>1.241526320646748</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1060010311229037</v>
+        <v>0.3727636517178022</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8176528835569067</v>
+        <v>0.4823313558754244</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4618269573399051</v>
+        <v>0.4275475406200702</v>
       </c>
       <c r="L14" t="n">
-        <v>1.94432543273434</v>
+        <v>1.383909841111605</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5355320927392262</v>
+        <v>0.5847483975095755</v>
       </c>
       <c r="N14" t="n">
-        <v>1.01942114154725</v>
+        <v>1.023154842458596</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5583308026313939</v>
+        <v>0.6096423473876129</v>
       </c>
       <c r="P14" t="n">
-        <v>156.4979778418855</v>
+        <v>156.1462944559705</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.3514163567369</v>
+        <v>249.9997329708219</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_13</t>
+          <t>model_19_8_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9573191172453975</v>
+        <v>0.9485827178230621</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8095481434814599</v>
+        <v>0.8141846912852594</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9753653227579488</v>
+        <v>0.9633746089907487</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9230323636620394</v>
+        <v>0.9205958140223313</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9413949014338393</v>
+        <v>0.9667262689358661</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2854072595074211</v>
+        <v>0.3438276026719986</v>
       </c>
       <c r="H15" t="n">
-        <v>1.273552441489641</v>
+        <v>1.242547824976294</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1060953825929615</v>
+        <v>0.3644508287138964</v>
       </c>
       <c r="J15" t="n">
-        <v>0.826181866464085</v>
+        <v>0.4764836197764533</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4661386425358915</v>
+        <v>0.4204672242451749</v>
       </c>
       <c r="L15" t="n">
-        <v>1.925822762658741</v>
+        <v>1.396138797439023</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5342352099098496</v>
+        <v>0.5863681460243203</v>
       </c>
       <c r="N15" t="n">
-        <v>1.019327192190763</v>
+        <v>1.023283297589557</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5569787088150533</v>
+        <v>0.6113310519499719</v>
       </c>
       <c r="P15" t="n">
-        <v>156.5076762760141</v>
+        <v>156.1352298045043</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.3611147908655</v>
+        <v>249.9886683193557</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_14</t>
+          <t>model_19_8_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9575164112230554</v>
+        <v>0.9482733366980275</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8092522768581372</v>
+        <v>0.8140120468463796</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9753320590796173</v>
+        <v>0.9642088204393074</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9222350088173715</v>
+        <v>0.9214816187870807</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9408478644919982</v>
+        <v>0.9672650388543861</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2840879537703676</v>
+        <v>0.3458964356796738</v>
       </c>
       <c r="H16" t="n">
-        <v>1.275530902962141</v>
+        <v>1.243702299134038</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1062386409212258</v>
+        <v>0.3561497827626581</v>
       </c>
       <c r="J16" t="n">
-        <v>0.834740789995391</v>
+        <v>0.4711681385392081</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4704897154583084</v>
+        <v>0.4136589979086027</v>
       </c>
       <c r="L16" t="n">
-        <v>1.907509609305915</v>
+        <v>1.40841224435714</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5329990185454074</v>
+        <v>0.5881296078924048</v>
       </c>
       <c r="N16" t="n">
-        <v>1.019237851521635</v>
+        <v>1.02342339470278</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5556898902249577</v>
+        <v>0.6131675028965096</v>
       </c>
       <c r="P16" t="n">
-        <v>156.5169427847848</v>
+        <v>156.1232317351482</v>
       </c>
       <c r="Q16" t="n">
-        <v>250.3703812996363</v>
+        <v>249.9766702499997</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_15</t>
+          <t>model_19_8_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9577039551283305</v>
+        <v>0.947937779529735</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8089522807317886</v>
+        <v>0.8138192416148826</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9752874747056122</v>
+        <v>0.9650414700528034</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9214355696111474</v>
+        <v>0.9222780814635406</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9402963570988323</v>
+        <v>0.9677819838667292</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2828338468122329</v>
+        <v>0.3481403080091446</v>
       </c>
       <c r="H17" t="n">
-        <v>1.277536978440389</v>
+        <v>1.244991588604845</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1064306546493244</v>
+        <v>0.3478642782723372</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8433220873685185</v>
+        <v>0.4663887756577198</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4748763458691189</v>
+        <v>0.4071265644400389</v>
       </c>
       <c r="L17" t="n">
-        <v>1.889374921686331</v>
+        <v>1.420726291662827</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5318212545698348</v>
+        <v>0.5900341583409766</v>
       </c>
       <c r="N17" t="n">
-        <v>1.019152925979624</v>
+        <v>1.02357534511861</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5544619863986374</v>
+        <v>0.6151531340006401</v>
       </c>
       <c r="P17" t="n">
-        <v>156.5257913349907</v>
+        <v>156.1102993930603</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.3792298498421</v>
+        <v>249.9637379079117</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_16</t>
+          <t>model_19_8_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9578818976064249</v>
+        <v>0.9475755020851686</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8086483104494079</v>
+        <v>0.8136059507320124</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9752319310779589</v>
+        <v>0.9658717491624373</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9206340165044554</v>
+        <v>0.9229843197195364</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9397404448858123</v>
+        <v>0.9682765761329897</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2816439446418652</v>
+        <v>0.3505628589490941</v>
       </c>
       <c r="H18" t="n">
-        <v>1.279569629118323</v>
+        <v>1.246417865720712</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1066698671370125</v>
+        <v>0.3396023621198651</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8519260756584677</v>
+        <v>0.4621508257751265</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4792980117426726</v>
+        <v>0.4008765939474959</v>
       </c>
       <c r="L18" t="n">
-        <v>1.871422818155558</v>
+        <v>1.433501821963361</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5307013704917909</v>
+        <v>0.5920834898467395</v>
       </c>
       <c r="N18" t="n">
-        <v>1.019072348253694</v>
+        <v>1.023739395282188</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5532944265369116</v>
+        <v>0.6172897097913043</v>
       </c>
       <c r="P18" t="n">
-        <v>156.5342232269152</v>
+        <v>156.0964304955817</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.3876617417666</v>
+        <v>249.9498690104331</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_17</t>
+          <t>model_19_8_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.958050491031488</v>
+        <v>0.947186032343406</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8083405076907487</v>
+        <v>0.8133718761498741</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9751657499290884</v>
+        <v>0.96669942401649</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9198306537787693</v>
+        <v>0.9235994802189333</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9391804449763687</v>
+        <v>0.9687485170587353</v>
       </c>
       <c r="G19" t="n">
-        <v>0.280516559632168</v>
+        <v>0.3531672449056042</v>
       </c>
       <c r="H19" t="n">
-        <v>1.281627907582778</v>
+        <v>1.247983123529286</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1069548927633224</v>
+        <v>0.3313663603147525</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8605494886633926</v>
+        <v>0.4584594095369628</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4837521907133575</v>
+        <v>0.3949128596529108</v>
       </c>
       <c r="L19" t="n">
-        <v>1.854416154058967</v>
+        <v>1.446937194776316</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5296381402733077</v>
+        <v>0.5942787602679438</v>
       </c>
       <c r="N19" t="n">
-        <v>1.018996004061213</v>
+        <v>1.023915758938835</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5521859324068377</v>
+        <v>0.6195784374191755</v>
       </c>
       <c r="P19" t="n">
-        <v>156.5422450392803</v>
+        <v>156.0816271052913</v>
       </c>
       <c r="Q19" t="n">
-        <v>250.3956835541317</v>
+        <v>249.9350656201427</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_18</t>
+          <t>model_19_8_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9582100942504111</v>
+        <v>0.9467687651422807</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8080290786283898</v>
+        <v>0.8131165793341188</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9750887995628235</v>
+        <v>0.9675234789447142</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9190258908496607</v>
+        <v>0.924123631092878</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9386165767911822</v>
+        <v>0.9691974198887444</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2794492921723234</v>
+        <v>0.3559575126008676</v>
       </c>
       <c r="H20" t="n">
-        <v>1.283710435156771</v>
+        <v>1.249690294511774</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1072862987106922</v>
+        <v>0.3231663795576534</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8691879316566591</v>
+        <v>0.4553141181061514</v>
       </c>
       <c r="K20" t="n">
-        <v>0.488237137532708</v>
+        <v>0.3892402488319024</v>
       </c>
       <c r="L20" t="n">
-        <v>1.838056559470485</v>
+        <v>1.460430602913366</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5286296361086119</v>
+        <v>0.5966217500233021</v>
       </c>
       <c r="N20" t="n">
-        <v>1.018923730905474</v>
+        <v>1.02410471012425</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5511344941319593</v>
+        <v>0.6220211730990769</v>
       </c>
       <c r="P20" t="n">
-        <v>156.5498688524021</v>
+        <v>156.0658878037585</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.4033073672535</v>
+        <v>249.91932631861</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_19</t>
+          <t>model_19_8_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9583607368154584</v>
+        <v>0.9463231870570935</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8077141342787648</v>
+        <v>0.8128397448852006</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9750015741655134</v>
+        <v>0.9683432814378433</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9182196396282905</v>
+        <v>0.9245554259813886</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9380489281842432</v>
+        <v>0.9696227239369566</v>
       </c>
       <c r="G21" t="n">
-        <v>0.278441944646207</v>
+        <v>0.358937095308213</v>
       </c>
       <c r="H21" t="n">
-        <v>1.285816469472899</v>
+        <v>1.251541487746396</v>
       </c>
       <c r="I21" t="n">
-        <v>0.107661956642335</v>
+        <v>0.3150087138025729</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8778423501967552</v>
+        <v>0.4527230306345611</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4927521534195451</v>
+        <v>0.3838658466565856</v>
       </c>
       <c r="L21" t="n">
-        <v>1.821866750578506</v>
+        <v>1.47398728129557</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5276759845266857</v>
+        <v>0.5991135913232256</v>
       </c>
       <c r="N21" t="n">
-        <v>1.018855515404321</v>
+        <v>1.024306481332637</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5501402436278595</v>
+        <v>0.6246190972419607</v>
       </c>
       <c r="P21" t="n">
-        <v>156.5570913972595</v>
+        <v>156.0492162556594</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.4105299121109</v>
+        <v>249.9026547705109</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_20</t>
+          <t>model_19_8_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9585027843778452</v>
+        <v>0.9458488471902795</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8073958541511058</v>
+        <v>0.8125410306964831</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9749043019101359</v>
+        <v>0.9691584294756814</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9174122931337043</v>
+        <v>0.9248942889294494</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9374778151210332</v>
+        <v>0.9700241260967051</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2774920719424576</v>
+        <v>0.3621090081817321</v>
       </c>
       <c r="H22" t="n">
-        <v>1.2879448101521</v>
+        <v>1.253538990901803</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1080808838744051</v>
+        <v>0.3068973634598675</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8865085255597557</v>
+        <v>0.4506896032766446</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4972947252184601</v>
+        <v>0.378793483368256</v>
       </c>
       <c r="L22" t="n">
-        <v>1.80583708397688</v>
+        <v>1.487602677343415</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5267751626096827</v>
+        <v>0.6017549403052144</v>
       </c>
       <c r="N22" t="n">
-        <v>1.018791191979844</v>
+        <v>1.024521276744024</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5492010718568913</v>
+        <v>0.6273728939184589</v>
       </c>
       <c r="P22" t="n">
-        <v>156.563925831561</v>
+        <v>156.0316199698246</v>
       </c>
       <c r="Q22" t="n">
-        <v>250.4173643464124</v>
+        <v>249.8850584846761</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_21</t>
+          <t>model_19_8_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9586364296445191</v>
+        <v>0.9453450480531201</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8070744160039807</v>
+        <v>0.812220065875062</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9747974739827434</v>
+        <v>0.9699679890417698</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9166036544395475</v>
+        <v>0.9251398632519909</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9369032482432162</v>
+        <v>0.9704011779533399</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2765983854288292</v>
+        <v>0.3654779153316987</v>
       </c>
       <c r="H23" t="n">
-        <v>1.290094268522012</v>
+        <v>1.255685284140553</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1085409649916431</v>
+        <v>0.2988416227121539</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8951885715819576</v>
+        <v>0.4492159764056174</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5018647682868004</v>
+        <v>0.3740288254087931</v>
       </c>
       <c r="L23" t="n">
-        <v>1.789966616427606</v>
+        <v>1.501274478776193</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5259262167156428</v>
+        <v>0.6045476948361466</v>
       </c>
       <c r="N23" t="n">
-        <v>1.01873067336852</v>
+        <v>1.024749412202361</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5483159845785818</v>
+        <v>0.6302845417915718</v>
       </c>
       <c r="P23" t="n">
-        <v>156.570377393949</v>
+        <v>156.0130988495739</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.4238159088004</v>
+        <v>249.8665373644253</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_22</t>
+          <t>model_19_8_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9587617988548711</v>
+        <v>0.9448114311630326</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8067499103801408</v>
+        <v>0.81187641937003</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9746807824807427</v>
+        <v>0.9707713639243558</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9157944010551886</v>
+        <v>0.9252917672191144</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9363255920597862</v>
+        <v>0.970753555154485</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2757600409419335</v>
+        <v>0.3690462139327944</v>
       </c>
       <c r="H24" t="n">
-        <v>1.292264239122841</v>
+        <v>1.257983249902048</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1090435260533718</v>
+        <v>0.2908474243252364</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9038752157786983</v>
+        <v>0.4483044406821255</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5064593833592854</v>
+        <v>0.3695759714932771</v>
       </c>
       <c r="L24" t="n">
-        <v>1.774263997524968</v>
+        <v>1.514998749700675</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5251285946717561</v>
+        <v>0.6074917398062252</v>
       </c>
       <c r="N24" t="n">
-        <v>1.018673902405341</v>
+        <v>1.024991050039382</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5474844061129817</v>
+        <v>0.6333539208510398</v>
       </c>
       <c r="P24" t="n">
-        <v>156.5764484166082</v>
+        <v>155.9936668035467</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.4298869314596</v>
+        <v>249.8471053183981</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_23</t>
+          <t>model_19_8_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.958879218442023</v>
+        <v>0.944247178280808</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8064225082671703</v>
+        <v>0.8115097677105972</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9745547409080864</v>
+        <v>0.9715676465305249</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9149846234108967</v>
+        <v>0.9253489230758427</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9357450538835109</v>
+        <v>0.9710806475787721</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2749748556219814</v>
+        <v>0.3728193755543762</v>
       </c>
       <c r="H25" t="n">
-        <v>1.294453578559822</v>
+        <v>1.260435051236951</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1095863555267276</v>
+        <v>0.2829237995471293</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9125674874582437</v>
+        <v>0.4479614634301079</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5110769214924856</v>
+        <v>0.3654426314886187</v>
       </c>
       <c r="L25" t="n">
-        <v>1.758718878225115</v>
+        <v>1.528778276412147</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5243804493132647</v>
+        <v>0.610589367377435</v>
       </c>
       <c r="N25" t="n">
-        <v>1.018620731271537</v>
+        <v>1.025246560778502</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5467044106577049</v>
+        <v>0.636583420840929</v>
       </c>
       <c r="P25" t="n">
-        <v>156.5821512391956</v>
+        <v>155.9733224489353</v>
       </c>
       <c r="Q25" t="n">
-        <v>250.435589754047</v>
+        <v>249.8267609637868</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_19_8_24</t>
+          <t>model_19_8_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9589888555237124</v>
+        <v>0.9436519831493891</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8060923583438966</v>
+        <v>0.8111196970658567</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9744196375301265</v>
+        <v>0.9723561290816687</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9141743107827143</v>
+        <v>0.9253112058310828</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9351616998275949</v>
+        <v>0.9713821323880681</v>
       </c>
       <c r="G26" t="n">
-        <v>0.274241711951892</v>
+        <v>0.3767994481387955</v>
       </c>
       <c r="H26" t="n">
-        <v>1.296661292616955</v>
+        <v>1.263043455434441</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1101682119250646</v>
+        <v>0.2750777913197157</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9212655017331213</v>
+        <v>0.4481877946882138</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5157168568290929</v>
+        <v>0.3616328849749961</v>
       </c>
       <c r="L26" t="n">
-        <v>1.743330390186626</v>
+        <v>1.542604626143643</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5236809257094361</v>
+        <v>0.6138399206135061</v>
       </c>
       <c r="N26" t="n">
-        <v>1.018571084291149</v>
+        <v>1.025516083102163</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5459751068858478</v>
+        <v>0.6399723568578325</v>
       </c>
       <c r="P26" t="n">
-        <v>156.587490802121</v>
+        <v>155.9520844017616</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.4409293169724</v>
+        <v>249.805522916613</v>
       </c>
     </row>
   </sheetData>
